--- a/biology/Médecine/Tentative_de_suicide/Tentative_de_suicide.xlsx
+++ b/biology/Médecine/Tentative_de_suicide/Tentative_de_suicide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle tentative de suicide (parfois désignée sous le sigle TS) l'acte destiné à mettre fin à sa propre vie mais auquel le sujet survit, quelle qu'en soit la raison.
 Quelle qu'en soit la cause, la tentative de suicide est une conduite grave. Elle doit être analysée avec beaucoup d'attention et faire impérativement l'objet d'un examen psychiatrique[réf. nécessaire].
